--- a/biology/Histoire de la zoologie et de la botanique/Jules_d'Udekem/Jules_d'Udekem.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jules_d'Udekem/Jules_d'Udekem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jules_d%27Udekem</t>
+          <t>Jules_d'Udekem</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jules d’Udekem de Guertechin[1], né à Louvain en 1824 et décédé à Saint-Josse-ten-Noode le 10 décembre 1864, est un zoologiste belge.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jules d’Udekem de Guertechin, né à Louvain en 1824 et décédé à Saint-Josse-ten-Noode le 10 décembre 1864, est un zoologiste belge.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jules_d%27Udekem</t>
+          <t>Jules_d'Udekem</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études à l'Université libre de Bruxelles, il devint docteur en sciences naturelles, docteur en médecine (1850) et professeur à l’Université libre de Bruxelles (professeur extraordinaire : 31 mai 1858). Il est le fils de Ferdinand d'Udekem.
 Il enseigna la Zoologie à la Faculté des Sciences et la physiologie comparée à la Faculté de Médecine.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jules_d%27Udekem</t>
+          <t>Jules_d'Udekem</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Développement du Lombric terrestre », dans les Mémoires couronnés par l'Académie royale des sciences, des lettres et des beaux-arts de Belgique, tome 27 (1855-1856), Bruxelles, chez M. Hayez, 1856 (lire en ligne)</t>
         </is>
